--- a/ProcessUserData/User Data.xlsx
+++ b/ProcessUserData/User Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasulu\Documents\UiPath\UiPath-DiplomaCourse\ProcessUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA9F8AB-993B-4B31-8DA6-BADDE8EF8133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685401A7-E982-40B5-A319-ECA4FC77CC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
     <t>Stan Hamm</t>
   </si>
   <si>
-    <t xml:space="preserve">Jessie </t>
+    <t>Jessie</t>
   </si>
 </sst>
 </file>
